--- a/pred_ohlcv/54_21/2019-10-21 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 FNB ohlcv.xlsx
@@ -12404,7 +12404,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-258539.9185987162</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-323960.4589987162</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-273476.2909987162</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-370337.3614987162</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-328236.0782987162</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-328236.0782987162</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-332226.9496987162</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-332226.9496987162</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-242331.2766987162</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-191893.3362866388</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-246275.5528866388</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-209206.9476866388</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-207887.9720866388</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-248708.7868866388</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-487060.3717827741</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-423867.5666827741</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-705953.212482774</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-705953.212482774</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-645315.891282774</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>151084.222591822</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>151084.222591822</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>80967.21869182198</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-30080.77020817803</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-4694.151208178031</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>147745.425591822</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>199292.932091822</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>195174.835391822</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>102319.474291822</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-8925.942908178</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>2977.878291822</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>147824.030791822</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>1637877.54050953</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>1453005.25670953</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>1628747.23750953</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>1668602.40890953</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>1509652.64890953</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>1509652.64890953</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>1396391.92380953</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>1447196.50980953</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>1395585.36890953</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>1015313.26870953</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 FNB ohlcv.xlsx
@@ -12404,7 +12404,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-319985.9297987162</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-323960.4589987162</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-273476.2909987162</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-339083.8937987162</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-222415.0856987162</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-192646.0480987162</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-242311.9532987162</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-242331.2766987162</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-206939.9354987162</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-158304.0502987162</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-129823.0572987162</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-118421.2118987162</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-162009.6667866388</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-226290.0015866389</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-156722.2183866389</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-84062.49958663885</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-221261.8452866388</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-191893.3362866388</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-246275.5528866388</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-209206.9476866388</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-207887.9720866388</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-367409.2839866388</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-248708.7868866388</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-320711.2528866388</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-532093.6310866389</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-447718.1726866389</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-510803.1681866389</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-483827.3105866389</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-469090.2771866389</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-502961.6123866389</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-412517.3562866389</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-536751.9307827741</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-487060.3717827741</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-423867.5666827741</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-625910.7280827741</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-705953.212482774</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>151084.222591822</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>151084.222591822</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>80967.21869182198</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-30080.77020817803</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-4694.151208178031</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>147745.425591822</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>199292.932091822</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>195174.835391822</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>102319.474291822</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-104241.020108178</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-8925.942908178</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>2977.878291822</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>147824.030791822</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>1453005.25670953</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>1597315.08570953</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
